--- a/doc/ios/xls/j技能表.xlsx
+++ b/doc/ios/xls/j技能表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25200" windowHeight="12000"/>
+    <workbookView windowWidth="28140" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$I$1:$I$325</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
-  <extLst/>
 </workbook>
 </file>
 
@@ -272,6 +271,9 @@
     <t>trigger</t>
   </si>
   <si>
+    <t>target</t>
+  </si>
+  <si>
     <t>cmd</t>
   </si>
   <si>
@@ -309,9 +311,6 @@
   </si>
   <si>
     <t>skillTypeName</t>
-  </si>
-  <si>
-    <t>target</t>
   </si>
   <si>
     <t>atk</t>
@@ -7284,17 +7283,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
+  <fonts count="23">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -7313,6 +7307,12 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="12"/>
       <color indexed="52"/>
@@ -7321,27 +7321,9 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
+      <sz val="11"/>
+      <color indexed="62"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="14"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="9"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="60"/>
-      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -7359,6 +7341,13 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color indexed="62"/>
       <name val="Calibri"/>
@@ -7366,8 +7355,8 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color indexed="62"/>
+      <sz val="12"/>
+      <color indexed="63"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
@@ -7392,17 +7381,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="9"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="63"/>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color indexed="60"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -7412,10 +7393,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color indexed="23"/>
-      <name val="宋体"/>
+      <sz val="12"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
       <charset val="134"/>
     </font>
     <font>
@@ -7425,9 +7405,23 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="12"/>
-      <color indexed="10"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="14"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color indexed="23"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -7482,7 +7476,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="26"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="27"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7494,7 +7500,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="22"/>
+        <fgColor indexed="49"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7506,37 +7512,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="45"/>
+        <fgColor indexed="29"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="49"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="27"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="43"/>
+        <fgColor indexed="55"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="44"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="29"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7560,13 +7548,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="55"/>
+        <fgColor indexed="43"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="53"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7597,10 +7591,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color indexed="49"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color indexed="49"/>
       </bottom>
       <diagonal/>
@@ -7619,30 +7611,6 @@
       <right/>
       <top/>
       <bottom style="thick">
-        <color indexed="49"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="22"/>
-      </left>
-      <right style="thin">
-        <color indexed="22"/>
-      </right>
-      <top style="thin">
-        <color indexed="22"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="22"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color indexed="49"/>
       </bottom>
       <diagonal/>
@@ -7678,6 +7646,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -7686,18 +7669,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="49"/>
+      </top>
+      <bottom style="double">
+        <color indexed="49"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7709,136 +7703,136 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -7891,51 +7885,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="50" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="50" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="51">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="40% - Accent1" xfId="2"/>
-    <cellStyle name="20% - Accent3" xfId="3"/>
+    <cellStyle name="20% - Accent3" xfId="1"/>
+    <cellStyle name="千位分隔" xfId="2" builtinId="3"/>
+    <cellStyle name="40% - Accent1" xfId="3"/>
     <cellStyle name="货币" xfId="4" builtinId="4"/>
     <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
     <cellStyle name="百分比" xfId="6" builtinId="5"/>
-    <cellStyle name="20% - Accent1" xfId="7"/>
-    <cellStyle name="Calculation" xfId="8"/>
+    <cellStyle name="Calculation" xfId="7"/>
+    <cellStyle name="20% - Accent1" xfId="8"/>
     <cellStyle name="货币[0]" xfId="9" builtinId="7"/>
     <cellStyle name="20% - Accent2" xfId="10"/>
     <cellStyle name="20% - Accent4" xfId="11"/>
-    <cellStyle name="20% - Accent5" xfId="12"/>
-    <cellStyle name="60% - Accent1" xfId="13"/>
-    <cellStyle name="20% - Accent6" xfId="14"/>
-    <cellStyle name="60% - Accent2" xfId="15"/>
-    <cellStyle name="40% - Accent2" xfId="16"/>
+    <cellStyle name="60% - Accent1" xfId="12"/>
+    <cellStyle name="20% - Accent5" xfId="13"/>
+    <cellStyle name="60% - Accent2" xfId="14"/>
+    <cellStyle name="20% - Accent6" xfId="15"/>
+    <cellStyle name="常规 2" xfId="16"/>
     <cellStyle name="Title" xfId="17"/>
-    <cellStyle name="常规 2" xfId="18"/>
-    <cellStyle name="40% - Accent3" xfId="19"/>
-    <cellStyle name="Warning Text" xfId="20"/>
+    <cellStyle name="40% - Accent2" xfId="18"/>
+    <cellStyle name="Warning Text" xfId="19"/>
+    <cellStyle name="40% - Accent3" xfId="20"/>
     <cellStyle name="40% - Accent4" xfId="21"/>
     <cellStyle name="40% - Accent5" xfId="22"/>
     <cellStyle name="40% - Accent6" xfId="23"/>
-    <cellStyle name="60% - Accent3" xfId="24"/>
+    <cellStyle name="Output" xfId="24"/>
     <cellStyle name="Good" xfId="25"/>
-    <cellStyle name="Output" xfId="26"/>
+    <cellStyle name="60% - Accent3" xfId="26"/>
     <cellStyle name="60% - Accent4" xfId="27"/>
-    <cellStyle name="60% - Accent5" xfId="28"/>
-    <cellStyle name="解释性文本" xfId="29"/>
+    <cellStyle name="解释性文本" xfId="28"/>
+    <cellStyle name="60% - Accent5" xfId="29"/>
     <cellStyle name="60% - Accent6" xfId="30"/>
     <cellStyle name="Accent1" xfId="31"/>
     <cellStyle name="Accent2" xfId="32"/>
@@ -7944,13 +7938,13 @@
     <cellStyle name="Accent5" xfId="35"/>
     <cellStyle name="Accent6" xfId="36"/>
     <cellStyle name="Bad" xfId="37"/>
-    <cellStyle name="Check Cell" xfId="38"/>
+    <cellStyle name="Note" xfId="38"/>
     <cellStyle name="Heading 2" xfId="39"/>
-    <cellStyle name="Note" xfId="40"/>
+    <cellStyle name="Check Cell" xfId="40"/>
     <cellStyle name="Explanatory Text" xfId="41"/>
     <cellStyle name="Heading 1" xfId="42"/>
-    <cellStyle name="Heading 3" xfId="43"/>
-    <cellStyle name="适中" xfId="44"/>
+    <cellStyle name="适中" xfId="43"/>
+    <cellStyle name="Heading 3" xfId="44"/>
     <cellStyle name="Heading 4" xfId="45"/>
     <cellStyle name="Input" xfId="46"/>
     <cellStyle name="Linked Cell" xfId="47"/>
@@ -8299,10 +8293,10 @@
   <sheetPr/>
   <dimension ref="A1:W325"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G103" sqref="G103"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -8409,46 +8403,48 @@
       <c r="E2" t="s">
         <v>24</v>
       </c>
-      <c r="F2"/>
+      <c r="F2" t="s">
+        <v>25</v>
+      </c>
       <c r="G2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M2"/>
       <c r="N2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="T2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="U2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:19">
@@ -8459,10 +8455,10 @@
         <v>24</v>
       </c>
       <c r="F3" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="G3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H3" t="s">
         <v>39</v>

--- a/doc/ios/xls/j技能表.xlsx
+++ b/doc/ios/xls/j技能表.xlsx
@@ -277,6 +277,9 @@
     <t>cmd</t>
   </si>
   <si>
+    <t>atk</t>
+  </si>
+  <si>
     <t>type</t>
   </si>
   <si>
@@ -311,9 +314,6 @@
   </si>
   <si>
     <t>skillTypeName</t>
-  </si>
-  <si>
-    <t>atk</t>
   </si>
   <si>
     <t>神圣治疗</t>
@@ -7283,10 +7283,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -7307,15 +7307,22 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="12"/>
-      <color indexed="9"/>
+      <color indexed="52"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
-      <color indexed="52"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="9"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
@@ -7335,21 +7342,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color indexed="62"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
       <sz val="12"/>
       <color indexed="9"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="62"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
@@ -7381,33 +7375,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="60"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="60"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color indexed="10"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="52"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
@@ -7422,6 +7391,37 @@
       <sz val="11"/>
       <color indexed="23"/>
       <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color indexed="62"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="60"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="62"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="52"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="60"/>
+      <name val="Calibri"/>
       <charset val="134"/>
     </font>
     <font>
@@ -7476,6 +7476,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="22"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -7488,13 +7494,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="27"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
+        <fgColor indexed="47"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7506,7 +7506,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="47"/>
+        <fgColor indexed="27"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7591,6 +7591,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color indexed="49"/>
+      </top>
+      <bottom style="double">
+        <color indexed="49"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color indexed="49"/>
@@ -7603,15 +7614,6 @@
       <top/>
       <bottom style="thick">
         <color indexed="22"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color indexed="49"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7664,19 +7666,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color indexed="52"/>
+      <bottom style="thick">
+        <color indexed="49"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color indexed="49"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color indexed="49"/>
+        <color indexed="52"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7685,13 +7685,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7703,133 +7703,133 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
@@ -8296,7 +8296,7 @@
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomLeft" activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -8409,42 +8409,45 @@
       <c r="G2" t="s">
         <v>26</v>
       </c>
+      <c r="H2" t="s">
+        <v>27</v>
+      </c>
       <c r="I2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M2"/>
       <c r="N2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="S2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="T2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="U2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:19">
@@ -8461,7 +8464,7 @@
         <v>26</v>
       </c>
       <c r="H3" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="K3"/>
       <c r="L3"/>
@@ -24931,7 +24934,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="1"/>
